--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>forced</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>falling</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -127,12 +124,12 @@
     <t>buying</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -148,106 +145,136 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>free</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>stay</t>
   </si>
   <si>
     <t>amp</t>
@@ -614,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>0.9491525423728814</v>
@@ -733,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>0.9347826086956522</v>
@@ -783,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.815068493150685</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -901,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.8372093023255814</v>
+        <v>0.8429319371727748</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>323</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,16 +981,16 @@
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -1001,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6440677966101694</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>0.8055555555555556</v>
@@ -1183,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6333333333333333</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6153846153846154</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6031746031746031</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C15">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7890625</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5968992248062015</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C17">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5882352941176471</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>72</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L18">
         <v>21</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
       <c r="M18">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5302013422818792</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C19">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5135135135135135</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4464285714285715</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4181818181818182</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3866666666666667</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.6360544217687075</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3818181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.6274509803921569</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3777777777777778</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3506493506493507</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.5899581589958159</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3220338983050847</v>
+        <v>0.275</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.5851063829787234</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,13 +1960,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3134920634920635</v>
+        <v>0.2466487935656836</v>
       </c>
       <c r="C28">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D28">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1975,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1983,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2680965147453083</v>
+        <v>0.13</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2001,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2025,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2033,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1566666666666667</v>
+        <v>0.08532423208191127</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2051,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.550561797752809</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2075,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2083,37 +2110,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07508532423208192</v>
+        <v>0.03730132987349984</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>271</v>
+        <v>2968</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2125,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,37 +2160,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03972366148531951</v>
+        <v>0.0329004329004329</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E32">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="F32">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.4098360655737705</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2175,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2183,37 +2210,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03466148364107548</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C33">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E33">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="F33">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2980</v>
+        <v>2070</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.3859649122807017</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2225,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2233,113 +2260,89 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02646502835538752</v>
+        <v>0.009618467457518435</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E34">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="F34">
-        <v>0.6699999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2060</v>
+        <v>3089</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.58</v>
+      </c>
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K34">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L34">
-        <v>27</v>
-      </c>
-      <c r="M34">
-        <v>27</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
+      <c r="K35">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L35">
+        <v>54</v>
+      </c>
+      <c r="M35">
+        <v>54</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.007712082262210797</v>
-      </c>
-      <c r="C35">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>113</v>
-      </c>
-      <c r="E35">
-        <v>0.79</v>
-      </c>
-      <c r="F35">
-        <v>0.21</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>3088</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="L35">
-        <v>23</v>
-      </c>
-      <c r="M35">
-        <v>23</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K36">
-        <v>0.1532258064516129</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2351,47 +2354,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K37">
-        <v>0.07971014492753623</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>381</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K38">
-        <v>0.07792207792207792</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2403,85 +2406,85 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>284</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.0603448275862069</v>
+        <v>0.390625</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>327</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.0289532293986637</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>872</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.02801384954359459</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L41">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>3088</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2489,13 +2492,13 @@
         <v>80</v>
       </c>
       <c r="K42">
-        <v>0.02125279642058166</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2507,59 +2510,319 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>875</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.01293723047436512</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
       <c r="O43">
-        <v>0.6699999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2060</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K44">
-        <v>0.006666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L44">
         <v>20</v>
       </c>
       <c r="M44">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="N44">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2980</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45">
+        <v>0.1398601398601399</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>22</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47">
+        <v>0.09446254071661238</v>
+      </c>
+      <c r="L47">
+        <v>29</v>
+      </c>
+      <c r="M47">
+        <v>30</v>
+      </c>
+      <c r="N47">
+        <v>0.97</v>
+      </c>
+      <c r="O47">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48">
+        <v>0.06763285024154589</v>
+      </c>
+      <c r="L48">
+        <v>28</v>
+      </c>
+      <c r="M48">
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <v>0.93</v>
+      </c>
+      <c r="O48">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49">
+        <v>0.05475504322766571</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>0.9</v>
+      </c>
+      <c r="O49">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50">
+        <v>0.02783964365256125</v>
+      </c>
+      <c r="L50">
+        <v>25</v>
+      </c>
+      <c r="M50">
+        <v>28</v>
+      </c>
+      <c r="N50">
+        <v>0.89</v>
+      </c>
+      <c r="O50">
+        <v>0.11</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51">
+        <v>0.02587176602924635</v>
+      </c>
+      <c r="L51">
+        <v>23</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>0.82</v>
+      </c>
+      <c r="O51">
+        <v>0.18</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52">
+        <v>0.02585935036266162</v>
+      </c>
+      <c r="L52">
+        <v>82</v>
+      </c>
+      <c r="M52">
+        <v>112</v>
+      </c>
+      <c r="N52">
+        <v>0.73</v>
+      </c>
+      <c r="O52">
+        <v>0.27</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53">
+        <v>0.0128755364806867</v>
+      </c>
+      <c r="L53">
+        <v>27</v>
+      </c>
+      <c r="M53">
+        <v>73</v>
+      </c>
+      <c r="N53">
+        <v>0.37</v>
+      </c>
+      <c r="O53">
+        <v>0.63</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <v>0.008021390374331552</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>139</v>
+      </c>
+      <c r="N54">
+        <v>0.17</v>
+      </c>
+      <c r="O54">
+        <v>0.83</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2968</v>
       </c>
     </row>
   </sheetData>
